--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Wnt7b-Fzd8.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Wnt7b-Fzd8.xlsx
@@ -540,16 +540,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.05619466666666666</v>
+        <v>0.05619466666666667</v>
       </c>
       <c r="H2">
         <v>0.168584</v>
       </c>
       <c r="I2">
-        <v>0.1635393031167574</v>
+        <v>0.04986276087265156</v>
       </c>
       <c r="J2">
-        <v>0.2267663493071267</v>
+        <v>0.07297477932340853</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.062569</v>
+        <v>1.824475333333333</v>
       </c>
       <c r="N2">
-        <v>9.187707</v>
+        <v>5.473426</v>
       </c>
       <c r="O2">
-        <v>0.2460077391286943</v>
+        <v>0.1906606574278047</v>
       </c>
       <c r="P2">
-        <v>0.2690593624267</v>
+        <v>0.2015451970524477</v>
       </c>
       <c r="Q2">
-        <v>0.1721000440986666</v>
+        <v>0.1025257831982222</v>
       </c>
       <c r="R2">
-        <v>1.548900396888</v>
+        <v>0.9227320487840001</v>
       </c>
       <c r="S2">
-        <v>0.04023193421843572</v>
+        <v>0.009506866769145165</v>
       </c>
       <c r="T2">
-        <v>0.06101360936440587</v>
+        <v>0.01470771627859526</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.05619466666666666</v>
+        <v>0.05619466666666667</v>
       </c>
       <c r="H3">
         <v>0.168584</v>
       </c>
       <c r="I3">
-        <v>0.1635393031167574</v>
+        <v>0.04986276087265156</v>
       </c>
       <c r="J3">
-        <v>0.2267663493071267</v>
+        <v>0.07297477932340853</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,10 +626,10 @@
         <v>18.441306</v>
       </c>
       <c r="O3">
-        <v>0.4937797859292233</v>
+        <v>0.6423822165107047</v>
       </c>
       <c r="P3">
-        <v>0.5400483531609876</v>
+        <v>0.6790548829333741</v>
       </c>
       <c r="Q3">
         <v>0.345434347856</v>
@@ -638,10 +638,10 @@
         <v>3.108909130704</v>
       </c>
       <c r="S3">
-        <v>0.08075240208400682</v>
+        <v>0.03203095085071715</v>
       </c>
       <c r="T3">
-        <v>0.1224647934956431</v>
+        <v>0.04955388023054599</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,46 +664,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.05619466666666666</v>
+        <v>0.05619466666666667</v>
       </c>
       <c r="H4">
         <v>0.168584</v>
       </c>
       <c r="I4">
-        <v>0.1635393031167574</v>
+        <v>0.04986276087265156</v>
       </c>
       <c r="J4">
-        <v>0.2267663493071267</v>
+        <v>0.07297477932340853</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.01759833333333333</v>
+        <v>0.009389666666666666</v>
       </c>
       <c r="N4">
-        <v>0.05279499999999999</v>
+        <v>0.028169</v>
       </c>
       <c r="O4">
-        <v>0.001413625683459368</v>
+        <v>0.0009812355294625031</v>
       </c>
       <c r="P4">
-        <v>0.001546086421706485</v>
+        <v>0.001037252838673693</v>
       </c>
       <c r="Q4">
-        <v>0.0009889324755555553</v>
+        <v>0.0005276491884444444</v>
       </c>
       <c r="R4">
-        <v>0.008900392279999999</v>
+        <v>0.004748842696</v>
       </c>
       <c r="S4">
-        <v>0.0002311833591408948</v>
+        <v>4.892711256533844E-05</v>
       </c>
       <c r="T4">
-        <v>0.0003506003735636985</v>
+        <v>7.569329700479185E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.05619466666666666</v>
+        <v>0.05619466666666667</v>
       </c>
       <c r="H5">
         <v>0.168584</v>
       </c>
       <c r="I5">
-        <v>0.1635393031167574</v>
+        <v>0.04986276087265156</v>
       </c>
       <c r="J5">
-        <v>0.2267663493071267</v>
+        <v>0.07297477932340853</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.199718499999999</v>
+        <v>1.5503715</v>
       </c>
       <c r="N5">
-        <v>6.399436999999999</v>
+        <v>3.100743</v>
       </c>
       <c r="O5">
-        <v>0.2570245810080547</v>
+        <v>0.1620163583726162</v>
       </c>
       <c r="P5">
-        <v>0.1874056757697904</v>
+        <v>0.1141770910840848</v>
       </c>
       <c r="Q5">
-        <v>0.1798071145346666</v>
+        <v>0.08712260965200001</v>
       </c>
       <c r="R5">
-        <v>1.078842687208</v>
+        <v>0.5227356579120001</v>
       </c>
       <c r="S5">
-        <v>0.04203362086193382</v>
+        <v>0.008078582934991582</v>
       </c>
       <c r="T5">
-        <v>0.04249730093375043</v>
+        <v>0.008332048025649803</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.05619466666666666</v>
+        <v>0.05619466666666667</v>
       </c>
       <c r="H6">
         <v>0.168584</v>
       </c>
       <c r="I6">
-        <v>0.1635393031167574</v>
+        <v>0.04986276087265156</v>
       </c>
       <c r="J6">
-        <v>0.2267663493071267</v>
+        <v>0.07297477932340853</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.022088</v>
+        <v>0.03788966666666667</v>
       </c>
       <c r="N6">
-        <v>0.066264</v>
+        <v>0.113669</v>
       </c>
       <c r="O6">
-        <v>0.001774268250568265</v>
+        <v>0.003959532159411881</v>
       </c>
       <c r="P6">
-        <v>0.00194052222081558</v>
+        <v>0.004185576091419648</v>
       </c>
       <c r="Q6">
-        <v>0.001241227797333333</v>
+        <v>0.002129197188444445</v>
       </c>
       <c r="R6">
-        <v>0.011171050176</v>
+        <v>0.019162774696</v>
       </c>
       <c r="S6">
-        <v>0.0002901625932401223</v>
+        <v>0.0001974332052323283</v>
       </c>
       <c r="T6">
-        <v>0.0004400451397637072</v>
+        <v>0.0003054414916126836</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,22 +844,22 @@
         <v>24</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.287421</v>
+        <v>1.070792</v>
       </c>
       <c r="H7">
-        <v>0.574842</v>
+        <v>2.141584</v>
       </c>
       <c r="I7">
-        <v>0.8364606968832426</v>
+        <v>0.9501372391273485</v>
       </c>
       <c r="J7">
-        <v>0.7732336506928733</v>
+        <v>0.9270252206765914</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.062569</v>
+        <v>1.824475333333333</v>
       </c>
       <c r="N7">
-        <v>9.187707</v>
+        <v>5.473426</v>
       </c>
       <c r="O7">
-        <v>0.2460077391286943</v>
+        <v>0.1906606574278047</v>
       </c>
       <c r="P7">
-        <v>0.2690593624267</v>
+        <v>0.2015451970524477</v>
       </c>
       <c r="Q7">
-        <v>0.8802466445489999</v>
+        <v>1.953633591130667</v>
       </c>
       <c r="R7">
-        <v>5.281479867293999</v>
+        <v>11.721801546784</v>
       </c>
       <c r="S7">
-        <v>0.2057758049102586</v>
+        <v>0.1811537906586596</v>
       </c>
       <c r="T7">
-        <v>0.2080457530622942</v>
+        <v>0.1868374807738524</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,22 +906,22 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.287421</v>
+        <v>1.070792</v>
       </c>
       <c r="H8">
-        <v>0.574842</v>
+        <v>2.141584</v>
       </c>
       <c r="I8">
-        <v>0.8364606968832426</v>
+        <v>0.9501372391273485</v>
       </c>
       <c r="J8">
-        <v>0.7732336506928733</v>
+        <v>0.9270252206765914</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>18.441306</v>
       </c>
       <c r="O8">
-        <v>0.4937797859292233</v>
+        <v>0.6423822165107047</v>
       </c>
       <c r="P8">
-        <v>0.5400483531609876</v>
+        <v>0.6790548829333741</v>
       </c>
       <c r="Q8">
-        <v>1.766806203942</v>
+        <v>6.582267644784</v>
       </c>
       <c r="R8">
-        <v>10.600837223652</v>
+        <v>39.493605868704</v>
       </c>
       <c r="S8">
-        <v>0.4130273838452165</v>
+        <v>0.6103512656599875</v>
       </c>
       <c r="T8">
-        <v>0.4175835596653446</v>
+        <v>0.6295010027028282</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.287421</v>
+        <v>1.070792</v>
       </c>
       <c r="H9">
-        <v>0.574842</v>
+        <v>2.141584</v>
       </c>
       <c r="I9">
-        <v>0.8364606968832426</v>
+        <v>0.9501372391273485</v>
       </c>
       <c r="J9">
-        <v>0.7732336506928733</v>
+        <v>0.9270252206765914</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.01759833333333333</v>
+        <v>0.009389666666666666</v>
       </c>
       <c r="N9">
-        <v>0.05279499999999999</v>
+        <v>0.028169</v>
       </c>
       <c r="O9">
-        <v>0.001413625683459368</v>
+        <v>0.0009812355294625031</v>
       </c>
       <c r="P9">
-        <v>0.001546086421706485</v>
+        <v>0.001037252838673693</v>
       </c>
       <c r="Q9">
-        <v>0.005058130564999999</v>
+        <v>0.01005437994933333</v>
       </c>
       <c r="R9">
-        <v>0.03034878338999999</v>
+        <v>0.060326279696</v>
       </c>
       <c r="S9">
-        <v>0.001182442324318473</v>
+        <v>0.0009323084168971648</v>
       </c>
       <c r="T9">
-        <v>0.001195486048142787</v>
+        <v>0.0009615595416689015</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,22 +1030,22 @@
         <v>21</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.287421</v>
+        <v>1.070792</v>
       </c>
       <c r="H10">
-        <v>0.574842</v>
+        <v>2.141584</v>
       </c>
       <c r="I10">
-        <v>0.8364606968832426</v>
+        <v>0.9501372391273485</v>
       </c>
       <c r="J10">
-        <v>0.7732336506928733</v>
+        <v>0.9270252206765914</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.199718499999999</v>
+        <v>1.5503715</v>
       </c>
       <c r="N10">
-        <v>6.399436999999999</v>
+        <v>3.100743</v>
       </c>
       <c r="O10">
-        <v>0.2570245810080547</v>
+        <v>0.1620163583726162</v>
       </c>
       <c r="P10">
-        <v>0.1874056757697904</v>
+        <v>0.1141770910840848</v>
       </c>
       <c r="Q10">
-        <v>0.9196662909884998</v>
+        <v>1.660125399228</v>
       </c>
       <c r="R10">
-        <v>3.678665163953999</v>
+        <v>6.640501596912</v>
       </c>
       <c r="S10">
-        <v>0.2149909601461209</v>
+        <v>0.1539377754376246</v>
       </c>
       <c r="T10">
-        <v>0.14490837483604</v>
+        <v>0.105845043058435</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>26</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.287421</v>
+        <v>1.070792</v>
       </c>
       <c r="H11">
-        <v>0.574842</v>
+        <v>2.141584</v>
       </c>
       <c r="I11">
-        <v>0.8364606968832426</v>
+        <v>0.9501372391273485</v>
       </c>
       <c r="J11">
-        <v>0.7732336506928733</v>
+        <v>0.9270252206765914</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.022088</v>
+        <v>0.03788966666666667</v>
       </c>
       <c r="N11">
-        <v>0.066264</v>
+        <v>0.113669</v>
       </c>
       <c r="O11">
-        <v>0.001774268250568265</v>
+        <v>0.003959532159411881</v>
       </c>
       <c r="P11">
-        <v>0.00194052222081558</v>
+        <v>0.004185576091419648</v>
       </c>
       <c r="Q11">
-        <v>0.006348555047999999</v>
+        <v>0.04057195194933334</v>
       </c>
       <c r="R11">
-        <v>0.038091330288</v>
+        <v>0.243431711696</v>
       </c>
       <c r="S11">
-        <v>0.001484105657328143</v>
+        <v>0.003762098954179553</v>
       </c>
       <c r="T11">
-        <v>0.001500477081051873</v>
+        <v>0.003880134599806964</v>
       </c>
     </row>
   </sheetData>
